--- a/PPO/intermediary_data/matched_names.xlsx
+++ b/PPO/intermediary_data/matched_names.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="321">
   <si>
     <t>Achternaam</t>
   </si>
@@ -278,39 +278,6 @@
     <t>82</t>
   </si>
   <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>'t jong</t>
   </si>
   <si>
@@ -320,9 +287,6 @@
     <t>bartelink</t>
   </si>
   <si>
-    <t>blufpand</t>
-  </si>
-  <si>
     <t>boer</t>
   </si>
   <si>
@@ -338,12 +302,6 @@
     <t>clerx</t>
   </si>
   <si>
-    <t>de bruin</t>
-  </si>
-  <si>
-    <t>de groot-verweij</t>
-  </si>
-  <si>
     <t>de lange</t>
   </si>
   <si>
@@ -359,12 +317,6 @@
     <t>duiven</t>
   </si>
   <si>
-    <t>euson</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>giebels</t>
   </si>
   <si>
@@ -419,9 +371,6 @@
     <t>nelson</t>
   </si>
   <si>
-    <t>nunes</t>
-  </si>
-  <si>
     <t>otter</t>
   </si>
   <si>
@@ -464,9 +413,6 @@
     <t>storm</t>
   </si>
   <si>
-    <t>straakenbroek</t>
-  </si>
-  <si>
     <t>tan</t>
   </si>
   <si>
@@ -491,9 +437,6 @@
     <t>van bussel</t>
   </si>
   <si>
-    <t>van de ridder</t>
-  </si>
-  <si>
     <t>van delft</t>
   </si>
   <si>
@@ -521,18 +464,12 @@
     <t>van der veeken</t>
   </si>
   <si>
-    <t>van dongen</t>
-  </si>
-  <si>
     <t>van hardeveld</t>
   </si>
   <si>
     <t>van hoof</t>
   </si>
   <si>
-    <t>van leeuwen</t>
-  </si>
-  <si>
     <t>van riessen</t>
   </si>
   <si>
@@ -566,12 +503,6 @@
     <t>wouthuysen</t>
   </si>
   <si>
-    <t>irene</t>
-  </si>
-  <si>
-    <t>lieke</t>
-  </si>
-  <si>
     <t>roelie</t>
   </si>
   <si>
@@ -581,9 +512,6 @@
     <t>janko</t>
   </si>
   <si>
-    <t>roos</t>
-  </si>
-  <si>
     <t>bianca</t>
   </si>
   <si>
@@ -599,12 +527,6 @@
     <t>niki</t>
   </si>
   <si>
-    <t>jeffrey de bruin</t>
-  </si>
-  <si>
-    <t>tamara</t>
-  </si>
-  <si>
     <t>frank</t>
   </si>
   <si>
@@ -623,12 +545,6 @@
     <t>mireille</t>
   </si>
   <si>
-    <t>nina</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>ruth</t>
   </si>
   <si>
@@ -683,111 +599,99 @@
     <t>cheyenne</t>
   </si>
   <si>
+    <t>janet</t>
+  </si>
+  <si>
+    <t>jolanda</t>
+  </si>
+  <si>
+    <t>lourisa</t>
+  </si>
+  <si>
+    <t>patricia</t>
+  </si>
+  <si>
+    <t>bregje</t>
+  </si>
+  <si>
+    <t>babette</t>
+  </si>
+  <si>
+    <t>renske</t>
+  </si>
+  <si>
+    <t>femke</t>
+  </si>
+  <si>
+    <t>anita</t>
+  </si>
+  <si>
+    <t>rebecca</t>
+  </si>
+  <si>
+    <t>linda</t>
+  </si>
+  <si>
+    <t>dorine</t>
+  </si>
+  <si>
+    <t>tjitske</t>
+  </si>
+  <si>
+    <t>froukje</t>
+  </si>
+  <si>
+    <t>ziv</t>
+  </si>
+  <si>
+    <t>sophie</t>
+  </si>
+  <si>
+    <t>marith</t>
+  </si>
+  <si>
+    <t>eva</t>
+  </si>
+  <si>
+    <t>carla</t>
+  </si>
+  <si>
+    <t>mildred</t>
+  </si>
+  <si>
+    <t>mandy</t>
+  </si>
+  <si>
+    <t>charlotte</t>
+  </si>
+  <si>
+    <t>sanne</t>
+  </si>
+  <si>
+    <t>bibi</t>
+  </si>
+  <si>
+    <t>emma</t>
+  </si>
+  <si>
+    <t>carl</t>
+  </si>
+  <si>
     <t>anna</t>
   </si>
   <si>
-    <t>janet</t>
-  </si>
-  <si>
-    <t>jolanda</t>
-  </si>
-  <si>
-    <t>lourisa</t>
-  </si>
-  <si>
-    <t>patricia</t>
-  </si>
-  <si>
-    <t>bregje</t>
-  </si>
-  <si>
-    <t>babette</t>
-  </si>
-  <si>
-    <t>renske</t>
-  </si>
-  <si>
-    <t>femke</t>
-  </si>
-  <si>
-    <t>anita</t>
-  </si>
-  <si>
-    <t>rebecca</t>
-  </si>
-  <si>
-    <t>linda</t>
-  </si>
-  <si>
-    <t>dorine</t>
-  </si>
-  <si>
-    <t>tjitske</t>
-  </si>
-  <si>
-    <t>noëlla</t>
-  </si>
-  <si>
-    <t>froukje</t>
-  </si>
-  <si>
-    <t>ziv</t>
-  </si>
-  <si>
-    <t>sophie</t>
-  </si>
-  <si>
-    <t>marith</t>
-  </si>
-  <si>
-    <t>eva</t>
-  </si>
-  <si>
-    <t>carla</t>
-  </si>
-  <si>
-    <t>mildred</t>
-  </si>
-  <si>
-    <t>mandy</t>
-  </si>
-  <si>
-    <t>jelle van de ridder</t>
-  </si>
-  <si>
-    <t>charlotte</t>
-  </si>
-  <si>
-    <t>sanne</t>
-  </si>
-  <si>
-    <t>bibi</t>
-  </si>
-  <si>
-    <t>emma</t>
-  </si>
-  <si>
-    <t>carl</t>
-  </si>
-  <si>
     <t>thijs</t>
   </si>
   <si>
     <t>marjolijn</t>
   </si>
   <si>
-    <t>daniëlle</t>
-  </si>
-  <si>
     <t>wendy</t>
   </si>
   <si>
     <t>beatrijs</t>
   </si>
   <si>
-    <t>kristel</t>
-  </si>
-  <si>
     <t>elisa</t>
   </si>
   <si>
@@ -818,27 +722,15 @@
     <t>manuel</t>
   </si>
   <si>
+    <t>WerktuigPPO |  May</t>
+  </si>
+  <si>
     <t>WerktuigPPO |  FebMar</t>
   </si>
   <si>
-    <t>WerktuigPPO |  May</t>
-  </si>
-  <si>
     <t>WerktuigPPO |  June</t>
   </si>
   <si>
-    <t>8bm2auc7xd4th8zgefj68bm2auc7uavf</t>
-  </si>
-  <si>
-    <t>xa43rsblgwhruycfuafxa43rs213oykn</t>
-  </si>
-  <si>
-    <t>rfidzvjl7pur4so1rfidzg6djc872pc7</t>
-  </si>
-  <si>
-    <t>lj2cxh04or887mlejc1lj2cxz7a1a3k8</t>
-  </si>
-  <si>
     <t>3zk4suwgfehmkp0yjy74l3zk4sufgqpp</t>
   </si>
   <si>
@@ -848,9 +740,6 @@
     <t>vq8c05b78r98hmxjubrvyvq8c05b7xya</t>
   </si>
   <si>
-    <t>zqhrpsqh8rhyb5synzqhrpsrp3amola6</t>
-  </si>
-  <si>
     <t>g31dnmr9bi0y2r8ha7ag31dnmusiuzs5</t>
   </si>
   <si>
@@ -866,12 +755,6 @@
     <t>qjw543sd1r7mt9pzkqlhqjw543blbo7z</t>
   </si>
   <si>
-    <t>m5de6stvjtzhxm9ahm5d2c33t7cr40wb</t>
-  </si>
-  <si>
-    <t>z9vvya14r67btg8yz9v030os4dv9c9kl</t>
-  </si>
-  <si>
     <t>wqsrcdc9s376erfn7rfeurwqsrcdhnod</t>
   </si>
   <si>
@@ -890,12 +773,6 @@
     <t>1hz8emin4zxm5s2f1hz8emikmkclogt8</t>
   </si>
   <si>
-    <t>srek42in9x1l6rndesrek99ooitwqz09</t>
-  </si>
-  <si>
-    <t>sbf30utr0trwah0v9rysbf3uwn8ovqdk</t>
-  </si>
-  <si>
     <t>ihgal136vqdk0tq2p2wvcihgal04ose8</t>
   </si>
   <si>
@@ -950,9 +827,6 @@
     <t>k1fh1u3pdyvworgnxtjlk1fhtg963dc4</t>
   </si>
   <si>
-    <t>0vcgmbia00kn5buhv0vcb5492l44oswe</t>
-  </si>
-  <si>
     <t>zei4i0k63doqtwaxuruzei4i0hfvgc2c</t>
   </si>
   <si>
@@ -995,9 +869,6 @@
     <t>7qpyztzqy3nvr7dcf627qpyztzqmqi0l</t>
   </si>
   <si>
-    <t>41r0di8y9yig51d22k41r0di87vni4ln</t>
-  </si>
-  <si>
     <t>an7trawezwexx49m8tp6an7trah7ms77</t>
   </si>
   <si>
@@ -1022,9 +893,6 @@
     <t>ivrhy9rrcan1a8kcvcmivrhy9rclpqdy</t>
   </si>
   <si>
-    <t>fchz1rt5aaea7h1e10byfchz1rttmb32</t>
-  </si>
-  <si>
     <t>voo8fs3rcv53ce1b9bvoo8mky3sxyxix</t>
   </si>
   <si>
@@ -1052,18 +920,12 @@
     <t>esejsolg5jrnkesejm8af1ktinbpgoxu</t>
   </si>
   <si>
-    <t>qjeod6216fuqp68yh9qjeod6gvxydrpm</t>
-  </si>
-  <si>
     <t>89iq7dne6nvfjd7tzs89iq7dniiijhpy</t>
   </si>
   <si>
     <t>m9u3k0m0qhy87lk85icvqwm9u3k0m0ib</t>
   </si>
   <si>
-    <t>84tne70ztvbzumoi84tnektxhsc8gl6u</t>
-  </si>
-  <si>
     <t>vy9wa3u4zpoc9gkivy9828jb3n0wl6j7</t>
   </si>
   <si>
@@ -1097,13 +959,22 @@
     <t>b1s1ygc54bdy4didxxhb1s1yggl4keaa</t>
   </si>
   <si>
+    <t>Dataset mei 2022 tbv CIRI.xlsx</t>
+  </si>
+  <si>
     <t>Dataset maart 2022 tbv CIRI.xlsx</t>
   </si>
   <si>
+    <t>Dataset juni 2022 tbv CIRI.xlsx</t>
+  </si>
+  <si>
     <t>Dataset februari 2022 tbv CIRI.xlsx</t>
   </si>
   <si>
     <t>Dataset april 2022 tbv CIRI.xlsx</t>
+  </si>
+  <si>
+    <t>Dataset juli 2022 tbv CIRI.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1180,22 +1051,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
-      </c>
-      <c r="F2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G2" t="e">
-        <v>#N/A</v>
+        <v>239</v>
+      </c>
+      <c r="F2" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" t="n">
+        <v>24736.0</v>
       </c>
     </row>
     <row r="3">
@@ -1203,22 +1074,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G3" t="e">
-        <v>#N/A</v>
+        <v>240</v>
+      </c>
+      <c r="F3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23769.0</v>
       </c>
     </row>
     <row r="4">
@@ -1226,22 +1097,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
-      </c>
-      <c r="F4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G4" t="e">
-        <v>#N/A</v>
+        <v>241</v>
+      </c>
+      <c r="F4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23615.0</v>
       </c>
     </row>
     <row r="5">
@@ -1249,22 +1120,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
-      </c>
-      <c r="F5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G5" t="e">
-        <v>#N/A</v>
+        <v>242</v>
+      </c>
+      <c r="F5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" t="n">
+        <v>25135.0</v>
       </c>
     </row>
     <row r="6">
@@ -1272,22 +1143,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
-      </c>
-      <c r="F6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G6" t="e">
-        <v>#N/A</v>
+        <v>243</v>
+      </c>
+      <c r="F6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G6" t="n">
+        <v>23945.0</v>
       </c>
     </row>
     <row r="7">
@@ -1295,22 +1166,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>244</v>
       </c>
       <c r="F7" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="G7" t="n">
-        <v>23769.0</v>
+        <v>24992.0</v>
       </c>
     </row>
     <row r="8">
@@ -1318,22 +1189,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>245</v>
       </c>
       <c r="F8" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="G8" t="n">
-        <v>23615.0</v>
+        <v>23505.0</v>
       </c>
     </row>
     <row r="9">
@@ -1341,22 +1212,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
-      </c>
-      <c r="F9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G9" t="e">
-        <v>#N/A</v>
+        <v>246</v>
+      </c>
+      <c r="F9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" t="n">
+        <v>25592.0</v>
       </c>
     </row>
     <row r="10">
@@ -1364,22 +1235,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G10" t="e">
-        <v>#N/A</v>
+        <v>247</v>
+      </c>
+      <c r="F10" t="s">
+        <v>315</v>
+      </c>
+      <c r="G10" t="n">
+        <v>24722.0</v>
       </c>
     </row>
     <row r="11">
@@ -1387,22 +1258,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="F11" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G11" t="n">
-        <v>23945.0</v>
+        <v>24511.0</v>
       </c>
     </row>
     <row r="12">
@@ -1410,22 +1281,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C12" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
-      </c>
-      <c r="F12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G12" t="e">
-        <v>#N/A</v>
+        <v>249</v>
+      </c>
+      <c r="F12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G12" t="n">
+        <v>23704.0</v>
       </c>
     </row>
     <row r="13">
@@ -1433,22 +1304,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="F13" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G13" t="n">
-        <v>23505.0</v>
+        <v>25013.0</v>
       </c>
     </row>
     <row r="14">
@@ -1456,22 +1327,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
-      </c>
-      <c r="F14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G14" t="e">
-        <v>#N/A</v>
+        <v>251</v>
+      </c>
+      <c r="F14" t="s">
+        <v>319</v>
+      </c>
+      <c r="G14" t="n">
+        <v>24626.0</v>
       </c>
     </row>
     <row r="15">
@@ -1479,22 +1350,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
-      </c>
-      <c r="F15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G15" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" t="n">
+        <v>24458.0</v>
       </c>
     </row>
     <row r="16">
@@ -1502,22 +1373,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="C16" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E16" t="s">
-        <v>285</v>
-      </c>
-      <c r="F16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G16" t="e">
-        <v>#N/A</v>
+        <v>252</v>
+      </c>
+      <c r="F16" t="s">
+        <v>316</v>
+      </c>
+      <c r="G16" t="n">
+        <v>24000.0</v>
       </c>
     </row>
     <row r="17">
@@ -1525,22 +1396,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="D17" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="E17" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G17" t="e">
-        <v>#N/A</v>
+        <v>253</v>
+      </c>
+      <c r="F17" t="s">
+        <v>315</v>
+      </c>
+      <c r="G17" t="n">
+        <v>24858.0</v>
       </c>
     </row>
     <row r="18">
@@ -1548,22 +1419,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C18" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E18" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="F18" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G18" t="n">
-        <v>24511.0</v>
+        <v>25052.0</v>
       </c>
     </row>
     <row r="19">
@@ -1571,22 +1442,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C19" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E19" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="F19" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G19" t="n">
-        <v>23704.0</v>
+        <v>23750.0</v>
       </c>
     </row>
     <row r="20">
@@ -1594,22 +1465,22 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D20" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="E20" t="s">
-        <v>289</v>
-      </c>
-      <c r="F20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G20" t="e">
-        <v>#N/A</v>
+        <v>256</v>
+      </c>
+      <c r="F20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" t="n">
+        <v>24963.0</v>
       </c>
     </row>
     <row r="21">
@@ -1617,22 +1488,22 @@
         <v>25</v>
       </c>
       <c r="B21" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C21" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E21" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="F21" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="G21" t="n">
-        <v>24626.0</v>
+        <v>25216.0</v>
       </c>
     </row>
     <row r="22">
@@ -1640,22 +1511,22 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C22" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E22" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
       <c r="F22" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G22" t="n">
-        <v>24000.0</v>
+        <v>24371.0</v>
       </c>
     </row>
     <row r="23">
@@ -1663,22 +1534,22 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C23" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="F23" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G23" t="n">
-        <v>24458.0</v>
+        <v>24901.0</v>
       </c>
     </row>
     <row r="24">
@@ -1686,22 +1557,22 @@
         <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G24" t="e">
-        <v>#N/A</v>
+        <v>260</v>
+      </c>
+      <c r="F24" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" t="n">
+        <v>24614.0</v>
       </c>
     </row>
     <row r="25">
@@ -1709,22 +1580,22 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="C25" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="D25" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
-      </c>
-      <c r="F25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G25" t="e">
-        <v>#N/A</v>
+        <v>261</v>
+      </c>
+      <c r="F25" t="s">
+        <v>318</v>
+      </c>
+      <c r="G25" t="n">
+        <v>23230.0</v>
       </c>
     </row>
     <row r="26">
@@ -1732,22 +1603,22 @@
         <v>30</v>
       </c>
       <c r="B26" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C26" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="E26" t="s">
-        <v>294</v>
-      </c>
-      <c r="F26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G26" t="e">
-        <v>#N/A</v>
+        <v>262</v>
+      </c>
+      <c r="F26" t="s">
+        <v>315</v>
+      </c>
+      <c r="G26" t="n">
+        <v>24803.0</v>
       </c>
     </row>
     <row r="27">
@@ -1755,22 +1626,22 @@
         <v>31</v>
       </c>
       <c r="B27" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="D27" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
-      </c>
-      <c r="F27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G27" t="e">
-        <v>#N/A</v>
+        <v>263</v>
+      </c>
+      <c r="F27" t="s">
+        <v>315</v>
+      </c>
+      <c r="G27" t="n">
+        <v>24897.0</v>
       </c>
     </row>
     <row r="28">
@@ -1778,22 +1649,22 @@
         <v>32</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="F28" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G28" t="n">
-        <v>23750.0</v>
+        <v>24491.0</v>
       </c>
     </row>
     <row r="29">
@@ -1801,22 +1672,22 @@
         <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E29" t="s">
-        <v>297</v>
-      </c>
-      <c r="F29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G29" t="e">
-        <v>#N/A</v>
+        <v>264</v>
+      </c>
+      <c r="F29" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" t="n">
+        <v>23872.0</v>
       </c>
     </row>
     <row r="30">
@@ -1824,22 +1695,22 @@
         <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E30" t="s">
-        <v>298</v>
-      </c>
-      <c r="F30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G30" t="e">
-        <v>#N/A</v>
+        <v>265</v>
+      </c>
+      <c r="F30" t="s">
+        <v>316</v>
+      </c>
+      <c r="G30" t="n">
+        <v>23558.0</v>
       </c>
     </row>
     <row r="31">
@@ -1847,22 +1718,22 @@
         <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E31" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="F31" t="s">
-        <v>363</v>
+        <v>316</v>
       </c>
       <c r="G31" t="n">
-        <v>24371.0</v>
+        <v>24043.0</v>
       </c>
     </row>
     <row r="32">
@@ -1870,22 +1741,22 @@
         <v>36</v>
       </c>
       <c r="B32" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>300</v>
-      </c>
-      <c r="F32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G32" t="e">
-        <v>#N/A</v>
+        <v>266</v>
+      </c>
+      <c r="F32" t="s">
+        <v>315</v>
+      </c>
+      <c r="G32" t="n">
+        <v>24829.0</v>
       </c>
     </row>
     <row r="33">
@@ -1893,22 +1764,22 @@
         <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="C33" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="F33" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G33" t="n">
-        <v>24614.0</v>
+        <v>23452.0</v>
       </c>
     </row>
     <row r="34">
@@ -1916,22 +1787,22 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C34" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" t="s">
         <v>268</v>
       </c>
-      <c r="E34" t="s">
-        <v>302</v>
-      </c>
       <c r="F34" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="G34" t="n">
-        <v>23230.0</v>
+        <v>24423.0</v>
       </c>
     </row>
     <row r="35">
@@ -1939,22 +1810,22 @@
         <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E35" t="s">
         <v>269</v>
       </c>
-      <c r="E35" t="s">
-        <v>303</v>
-      </c>
-      <c r="F35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G35" t="e">
-        <v>#N/A</v>
+      <c r="F35" t="s">
+        <v>318</v>
+      </c>
+      <c r="G35" t="n">
+        <v>23408.0</v>
       </c>
     </row>
     <row r="36">
@@ -1962,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B36" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>215</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
       <c r="F36" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="G36" t="n">
-        <v>24491.0</v>
+        <v>24330.0</v>
       </c>
     </row>
     <row r="37">
@@ -1985,22 +1856,22 @@
         <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C37" t="s">
-        <v>216</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E37" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G37" t="n">
-        <v>23872.0</v>
+        <v>24223.0</v>
       </c>
     </row>
     <row r="38">
@@ -2008,22 +1879,22 @@
         <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="F38" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="G38" t="n">
-        <v>24043.0</v>
+        <v>24956.0</v>
       </c>
     </row>
     <row r="39">
@@ -2031,22 +1902,22 @@
         <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>273</v>
       </c>
       <c r="F39" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G39" t="n">
-        <v>23558.0</v>
+        <v>23622.0</v>
       </c>
     </row>
     <row r="40">
@@ -2054,22 +1925,22 @@
         <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C40" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E40" t="s">
-        <v>307</v>
-      </c>
-      <c r="F40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G40" t="e">
-        <v>#N/A</v>
+        <v>274</v>
+      </c>
+      <c r="F40" t="s">
+        <v>316</v>
+      </c>
+      <c r="G40" t="n">
+        <v>23581.0</v>
       </c>
     </row>
     <row r="41">
@@ -2077,22 +1948,22 @@
         <v>45</v>
       </c>
       <c r="B41" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E41" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="F41" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G41" t="n">
-        <v>23452.0</v>
+        <v>24895.0</v>
       </c>
     </row>
     <row r="42">
@@ -2100,22 +1971,22 @@
         <v>46</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C42" t="s">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="F42" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G42" t="n">
-        <v>24423.0</v>
+        <v>24906.0</v>
       </c>
     </row>
     <row r="43">
@@ -2123,22 +1994,22 @@
         <v>47</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C43" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
       <c r="F43" t="s">
-        <v>362</v>
+        <v>317</v>
       </c>
       <c r="G43" t="n">
-        <v>23408.0</v>
+        <v>25504.0</v>
       </c>
     </row>
     <row r="44">
@@ -2146,22 +2017,22 @@
         <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E44" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="F44" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G44" t="n">
-        <v>24330.0</v>
+        <v>23381.0</v>
       </c>
     </row>
     <row r="45">
@@ -2169,22 +2040,22 @@
         <v>49</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E45" t="s">
-        <v>312</v>
-      </c>
-      <c r="F45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G45" t="e">
-        <v>#N/A</v>
+        <v>278</v>
+      </c>
+      <c r="F45" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" t="n">
+        <v>24077.0</v>
       </c>
     </row>
     <row r="46">
@@ -2192,22 +2063,22 @@
         <v>50</v>
       </c>
       <c r="B46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C46" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E46" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="F46" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="G46" t="n">
-        <v>24223.0</v>
+        <v>24285.0</v>
       </c>
     </row>
     <row r="47">
@@ -2215,22 +2086,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C47" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E47" t="s">
-        <v>314</v>
-      </c>
-      <c r="F47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G47" t="e">
-        <v>#N/A</v>
+        <v>280</v>
+      </c>
+      <c r="F47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" t="n">
+        <v>25701.0</v>
       </c>
     </row>
     <row r="48">
@@ -2238,22 +2109,22 @@
         <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>315</v>
+        <v>280</v>
       </c>
       <c r="F48" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G48" t="n">
-        <v>23622.0</v>
+        <v>23960.0</v>
       </c>
     </row>
     <row r="49">
@@ -2261,22 +2132,22 @@
         <v>53</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C49" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E49" t="s">
+        <v>281</v>
+      </c>
+      <c r="F49" t="s">
         <v>316</v>
       </c>
-      <c r="F49" t="s">
-        <v>361</v>
-      </c>
       <c r="G49" t="n">
-        <v>23581.0</v>
+        <v>23748.0</v>
       </c>
     </row>
     <row r="50">
@@ -2284,22 +2155,22 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="D50" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="E50" t="s">
-        <v>317</v>
-      </c>
-      <c r="F50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G50" t="e">
-        <v>#N/A</v>
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>316</v>
+      </c>
+      <c r="G50" t="n">
+        <v>23898.0</v>
       </c>
     </row>
     <row r="51">
@@ -2307,22 +2178,22 @@
         <v>55</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C51" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="D51" t="s">
-        <v>269</v>
+        <v>236</v>
       </c>
       <c r="E51" t="s">
-        <v>318</v>
-      </c>
-      <c r="F51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G51" t="e">
-        <v>#N/A</v>
+        <v>282</v>
+      </c>
+      <c r="F51" t="s">
+        <v>315</v>
+      </c>
+      <c r="G51" t="n">
+        <v>25024.0</v>
       </c>
     </row>
     <row r="52">
@@ -2330,22 +2201,22 @@
         <v>56</v>
       </c>
       <c r="B52" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E52" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="F52" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G52" t="n">
-        <v>23381.0</v>
+        <v>23591.0</v>
       </c>
     </row>
     <row r="53">
@@ -2353,22 +2224,22 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E53" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="F53" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="G53" t="n">
-        <v>24077.0</v>
+        <v>23416.0</v>
       </c>
     </row>
     <row r="54">
@@ -2376,22 +2247,22 @@
         <v>58</v>
       </c>
       <c r="B54" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C54" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D54" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E54" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="F54" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G54" t="n">
-        <v>24285.0</v>
+        <v>24966.0</v>
       </c>
     </row>
     <row r="55">
@@ -2399,22 +2270,22 @@
         <v>59</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C55" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D55" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E55" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="F55" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G55" t="n">
-        <v>23960.0</v>
+        <v>24524.0</v>
       </c>
     </row>
     <row r="56">
@@ -2422,22 +2293,22 @@
         <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C56" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E56" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="F56" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="G56" t="n">
-        <v>23748.0</v>
+        <v>25490.0</v>
       </c>
     </row>
     <row r="57">
@@ -2445,22 +2316,22 @@
         <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C57" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E57" t="s">
-        <v>324</v>
+        <v>288</v>
       </c>
       <c r="F57" t="s">
-        <v>361</v>
+        <v>318</v>
       </c>
       <c r="G57" t="n">
-        <v>23898.0</v>
+        <v>23142.0</v>
       </c>
     </row>
     <row r="58">
@@ -2468,22 +2339,22 @@
         <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C58" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E58" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="F58" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G58" t="n">
-        <v>23591.0</v>
+        <v>24599.0</v>
       </c>
     </row>
     <row r="59">
@@ -2491,22 +2362,22 @@
         <v>63</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C59" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" t="s">
         <v>236</v>
       </c>
-      <c r="D59" t="s">
-        <v>268</v>
-      </c>
       <c r="E59" t="s">
-        <v>326</v>
+        <v>290</v>
       </c>
       <c r="F59" t="s">
-        <v>362</v>
+        <v>315</v>
       </c>
       <c r="G59" t="n">
-        <v>23416.0</v>
+        <v>24739.0</v>
       </c>
     </row>
     <row r="60">
@@ -2514,22 +2385,22 @@
         <v>64</v>
       </c>
       <c r="B60" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C60" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E60" t="s">
-        <v>327</v>
-      </c>
-      <c r="F60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G60" t="e">
-        <v>#N/A</v>
+        <v>291</v>
+      </c>
+      <c r="F60" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" t="n">
+        <v>23175.0</v>
       </c>
     </row>
     <row r="61">
@@ -2537,22 +2408,22 @@
         <v>65</v>
       </c>
       <c r="B61" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C61" t="s">
+        <v>215</v>
+      </c>
+      <c r="D61" t="s">
         <v>238</v>
       </c>
-      <c r="D61" t="s">
-        <v>269</v>
-      </c>
       <c r="E61" t="s">
-        <v>328</v>
-      </c>
-      <c r="F61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G61" t="e">
-        <v>#N/A</v>
+        <v>292</v>
+      </c>
+      <c r="F61" t="s">
+        <v>317</v>
+      </c>
+      <c r="G61" t="n">
+        <v>25444.0</v>
       </c>
     </row>
     <row r="62">
@@ -2560,22 +2431,22 @@
         <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C62" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>293</v>
       </c>
       <c r="F62" t="s">
-        <v>363</v>
+        <v>319</v>
       </c>
       <c r="G62" t="n">
-        <v>24524.0</v>
+        <v>24229.0</v>
       </c>
     </row>
     <row r="63">
@@ -2583,22 +2454,22 @@
         <v>67</v>
       </c>
       <c r="B63" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E63" t="s">
-        <v>330</v>
-      </c>
-      <c r="F63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G63" t="e">
-        <v>#N/A</v>
+        <v>294</v>
+      </c>
+      <c r="F63" t="s">
+        <v>315</v>
+      </c>
+      <c r="G63" t="n">
+        <v>24681.0</v>
       </c>
     </row>
     <row r="64">
@@ -2606,22 +2477,22 @@
         <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C64" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E64" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>362</v>
+        <v>318</v>
       </c>
       <c r="G64" t="n">
-        <v>23142.0</v>
+        <v>23484.0</v>
       </c>
     </row>
     <row r="65">
@@ -2629,22 +2500,22 @@
         <v>69</v>
       </c>
       <c r="B65" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E65" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>363</v>
+        <v>315</v>
       </c>
       <c r="G65" t="n">
-        <v>24599.0</v>
+        <v>24863.0</v>
       </c>
     </row>
     <row r="66">
@@ -2652,22 +2523,22 @@
         <v>70</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C66" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="D66" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E66" t="s">
-        <v>333</v>
-      </c>
-      <c r="F66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G66" t="e">
-        <v>#N/A</v>
+        <v>297</v>
+      </c>
+      <c r="F66" t="s">
+        <v>316</v>
+      </c>
+      <c r="G66" t="n">
+        <v>23629.0</v>
       </c>
     </row>
     <row r="67">
@@ -2675,22 +2546,22 @@
         <v>71</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C67" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E67" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="F67" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G67" t="n">
-        <v>23175.0</v>
+        <v>23721.0</v>
       </c>
     </row>
     <row r="68">
@@ -2698,22 +2569,22 @@
         <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C68" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E68" t="s">
-        <v>335</v>
-      </c>
-      <c r="F68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G68" t="e">
-        <v>#N/A</v>
+        <v>299</v>
+      </c>
+      <c r="F68" t="s">
+        <v>315</v>
+      </c>
+      <c r="G68" t="n">
+        <v>24711.0</v>
       </c>
     </row>
     <row r="69">
@@ -2721,22 +2592,22 @@
         <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C69" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>236</v>
       </c>
       <c r="E69" t="s">
-        <v>336</v>
-      </c>
-      <c r="F69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G69" t="e">
-        <v>#N/A</v>
+        <v>300</v>
+      </c>
+      <c r="F69" t="s">
+        <v>315</v>
+      </c>
+      <c r="G69" t="n">
+        <v>24653.0</v>
       </c>
     </row>
     <row r="70">
@@ -2744,22 +2615,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C70" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E70" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="F70" t="s">
-        <v>363</v>
+        <v>318</v>
       </c>
       <c r="G70" t="n">
-        <v>24229.0</v>
+        <v>23253.0</v>
       </c>
     </row>
     <row r="71">
@@ -2767,22 +2638,22 @@
         <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C71" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D71" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E71" t="s">
-        <v>338</v>
-      </c>
-      <c r="F71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G71" t="e">
-        <v>#N/A</v>
+        <v>302</v>
+      </c>
+      <c r="F71" t="s">
+        <v>319</v>
+      </c>
+      <c r="G71" t="n">
+        <v>24438.0</v>
       </c>
     </row>
     <row r="72">
@@ -2790,22 +2661,22 @@
         <v>76</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C72" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E72" t="s">
-        <v>339</v>
+        <v>303</v>
       </c>
       <c r="F72" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G72" t="n">
-        <v>23484.0</v>
+        <v>24047.0</v>
       </c>
     </row>
     <row r="73">
@@ -2813,22 +2684,22 @@
         <v>77</v>
       </c>
       <c r="B73" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C73" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D73" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>340</v>
-      </c>
-      <c r="F73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G73" t="e">
-        <v>#N/A</v>
+        <v>304</v>
+      </c>
+      <c r="F73" t="s">
+        <v>317</v>
+      </c>
+      <c r="G73" t="n">
+        <v>25389.0</v>
       </c>
     </row>
     <row r="74">
@@ -2836,22 +2707,22 @@
         <v>78</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C74" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E74" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
       <c r="F74" t="s">
-        <v>361</v>
+        <v>316</v>
       </c>
       <c r="G74" t="n">
-        <v>23629.0</v>
+        <v>23922.0</v>
       </c>
     </row>
     <row r="75">
@@ -2859,22 +2730,22 @@
         <v>79</v>
       </c>
       <c r="B75" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C75" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E75" t="s">
-        <v>342</v>
+        <v>306</v>
       </c>
       <c r="F75" t="s">
-        <v>361</v>
+        <v>319</v>
       </c>
       <c r="G75" t="n">
-        <v>23721.0</v>
+        <v>24542.0</v>
       </c>
     </row>
     <row r="76">
@@ -2882,22 +2753,22 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C76" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="D76" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E76" t="s">
-        <v>343</v>
-      </c>
-      <c r="F76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G76" t="e">
-        <v>#N/A</v>
+        <v>307</v>
+      </c>
+      <c r="F76" t="s">
+        <v>318</v>
+      </c>
+      <c r="G76" t="n">
+        <v>23242.0</v>
       </c>
     </row>
     <row r="77">
@@ -2905,22 +2776,22 @@
         <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C77" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="D77" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="E77" t="s">
-        <v>344</v>
-      </c>
-      <c r="F77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G77" t="e">
-        <v>#N/A</v>
+        <v>308</v>
+      </c>
+      <c r="F77" t="s">
+        <v>319</v>
+      </c>
+      <c r="G77" t="n">
+        <v>24366.0</v>
       </c>
     </row>
     <row r="78">
@@ -2928,22 +2799,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C78" t="s">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E78" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
       <c r="F78" t="s">
-        <v>362</v>
+        <v>316</v>
       </c>
       <c r="G78" t="n">
-        <v>23253.0</v>
+        <v>24116.0</v>
       </c>
     </row>
     <row r="79">
@@ -2951,22 +2822,22 @@
         <v>83</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="D79" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="E79" t="s">
-        <v>346</v>
-      </c>
-      <c r="F79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G79" t="e">
-        <v>#N/A</v>
+        <v>310</v>
+      </c>
+      <c r="F79" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" t="n">
+        <v>24738.0</v>
       </c>
     </row>
     <row r="80">
@@ -2974,22 +2845,22 @@
         <v>84</v>
       </c>
       <c r="B80" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C80" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E80" t="s">
-        <v>347</v>
+        <v>311</v>
       </c>
       <c r="F80" t="s">
-        <v>363</v>
+        <v>317</v>
       </c>
       <c r="G80" t="n">
-        <v>24438.0</v>
+        <v>25545.0</v>
       </c>
     </row>
     <row r="81">
@@ -2997,22 +2868,22 @@
         <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="E81" t="s">
-        <v>348</v>
+        <v>312</v>
       </c>
       <c r="F81" t="s">
-        <v>361</v>
+        <v>317</v>
       </c>
       <c r="G81" t="n">
-        <v>24047.0</v>
+        <v>25207.0</v>
       </c>
     </row>
     <row r="82">
@@ -3020,22 +2891,22 @@
         <v>86</v>
       </c>
       <c r="B82" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="E82" t="s">
-        <v>349</v>
-      </c>
-      <c r="F82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G82" t="e">
-        <v>#N/A</v>
+        <v>313</v>
+      </c>
+      <c r="F82" t="s">
+        <v>319</v>
+      </c>
+      <c r="G82" t="n">
+        <v>24156.0</v>
       </c>
     </row>
     <row r="83">
@@ -3043,251 +2914,21 @@
         <v>87</v>
       </c>
       <c r="B83" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>237</v>
       </c>
       <c r="E83" t="s">
-        <v>350</v>
-      </c>
-      <c r="F83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G83" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>88</v>
-      </c>
-      <c r="B84" t="s">
-        <v>174</v>
-      </c>
-      <c r="C84" t="s">
-        <v>259</v>
-      </c>
-      <c r="D84" t="s">
-        <v>268</v>
-      </c>
-      <c r="E84" t="s">
-        <v>351</v>
-      </c>
-      <c r="F84" t="s">
-        <v>361</v>
-      </c>
-      <c r="G84" t="n">
-        <v>23922.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>89</v>
-      </c>
-      <c r="B85" t="s">
-        <v>175</v>
-      </c>
-      <c r="C85" t="s">
-        <v>260</v>
-      </c>
-      <c r="D85" t="s">
-        <v>268</v>
-      </c>
-      <c r="E85" t="s">
-        <v>352</v>
-      </c>
-      <c r="F85" t="s">
-        <v>363</v>
-      </c>
-      <c r="G85" t="n">
-        <v>24542.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>90</v>
-      </c>
-      <c r="B86" t="s">
-        <v>176</v>
-      </c>
-      <c r="C86" t="s">
-        <v>261</v>
-      </c>
-      <c r="D86" t="s">
-        <v>268</v>
-      </c>
-      <c r="E86" t="s">
-        <v>353</v>
-      </c>
-      <c r="F86" t="s">
-        <v>362</v>
-      </c>
-      <c r="G86" t="n">
-        <v>23242.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>91</v>
-      </c>
-      <c r="B87" t="s">
-        <v>177</v>
-      </c>
-      <c r="C87" t="s">
-        <v>262</v>
-      </c>
-      <c r="D87" t="s">
-        <v>268</v>
-      </c>
-      <c r="E87" t="s">
-        <v>354</v>
-      </c>
-      <c r="F87" t="s">
-        <v>363</v>
-      </c>
-      <c r="G87" t="n">
-        <v>24366.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>92</v>
-      </c>
-      <c r="B88" t="s">
-        <v>178</v>
-      </c>
-      <c r="C88" t="s">
-        <v>260</v>
-      </c>
-      <c r="D88" t="s">
-        <v>268</v>
-      </c>
-      <c r="E88" t="s">
-        <v>355</v>
-      </c>
-      <c r="F88" t="s">
-        <v>361</v>
-      </c>
-      <c r="G88" t="n">
-        <v>24116.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>93</v>
-      </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" t="s">
-        <v>263</v>
-      </c>
-      <c r="D89" t="s">
-        <v>269</v>
-      </c>
-      <c r="E89" t="s">
-        <v>356</v>
-      </c>
-      <c r="F89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G89" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>180</v>
-      </c>
-      <c r="C90" t="s">
-        <v>264</v>
-      </c>
-      <c r="D90" t="s">
-        <v>270</v>
-      </c>
-      <c r="E90" t="s">
-        <v>357</v>
-      </c>
-      <c r="F90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G90" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>95</v>
-      </c>
-      <c r="B91" t="s">
-        <v>181</v>
-      </c>
-      <c r="C91" t="s">
-        <v>265</v>
-      </c>
-      <c r="D91" t="s">
-        <v>270</v>
-      </c>
-      <c r="E91" t="s">
-        <v>358</v>
-      </c>
-      <c r="F91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="G91" t="e">
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>96</v>
-      </c>
-      <c r="B92" t="s">
-        <v>182</v>
-      </c>
-      <c r="C92" t="s">
-        <v>266</v>
-      </c>
-      <c r="D92" t="s">
-        <v>268</v>
-      </c>
-      <c r="E92" t="s">
-        <v>359</v>
-      </c>
-      <c r="F92" t="s">
-        <v>363</v>
-      </c>
-      <c r="G92" t="n">
-        <v>24156.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>97</v>
-      </c>
-      <c r="B93" t="s">
-        <v>183</v>
-      </c>
-      <c r="C93" t="s">
-        <v>267</v>
-      </c>
-      <c r="D93" t="s">
-        <v>268</v>
-      </c>
-      <c r="E93" t="s">
-        <v>360</v>
-      </c>
-      <c r="F93" t="s">
-        <v>361</v>
-      </c>
-      <c r="G93" t="n">
+        <v>314</v>
+      </c>
+      <c r="F83" t="s">
+        <v>316</v>
+      </c>
+      <c r="G83" t="n">
         <v>23788.0</v>
       </c>
     </row>
